--- a/labwork4/Test Case.xlsx
+++ b/labwork4/Test Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Кушарева\software-testing-course\labwork4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="231">
   <si>
     <t>V1.0</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>Кушарева Евгения</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
   </si>
 </sst>
 </file>
@@ -889,11 +895,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1158,9 +1166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1254,44 +1263,97 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,64 +1371,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
@@ -1701,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
@@ -1721,20 +1731,20 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1743,107 +1753,107 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:7" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:7" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -1875,19 +1885,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1900,11 +1910,11 @@
   </sheetPr>
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1919,12 +1929,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="5"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -1946,19 +1956,19 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -2020,39 +2030,39 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
     </row>
     <row r="5" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -2061,7 +2071,7 @@
       <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -2070,7 +2080,7 @@
       <c r="E6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="15"/>
@@ -2088,19 +2098,19 @@
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="15"/>
@@ -2114,24 +2124,24 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" s="60" customFormat="1" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="43" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>2</v>
+      <c r="F8" s="79" t="s">
+        <v>229</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2144,23 +2154,23 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" s="60" customFormat="1" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="15"/>
@@ -2175,44 +2185,44 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="15"/>
@@ -2230,19 +2240,19 @@
       <c r="A12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="43" t="s">
         <v>183</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="15"/>
@@ -2260,19 +2270,19 @@
       <c r="A13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="15"/>
@@ -2287,22 +2297,22 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="15"/>
@@ -2317,44 +2327,44 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" ht="102" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="15"/>
@@ -2369,22 +2379,22 @@
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="15"/>
@@ -2399,22 +2409,22 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="15"/>
@@ -2429,22 +2439,22 @@
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="50" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="15"/>
@@ -2459,44 +2469,44 @@
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="15"/>
@@ -2511,22 +2521,22 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="15"/>
@@ -2541,22 +2551,22 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="15"/>
@@ -2571,22 +2581,22 @@
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G24" s="15"/>
@@ -2601,22 +2611,22 @@
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G25" s="15"/>
@@ -2631,44 +2641,44 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="15"/>
@@ -2683,22 +2693,22 @@
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="15"/>
@@ -2713,22 +2723,22 @@
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G29" s="15"/>
@@ -2743,22 +2753,22 @@
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="15"/>
@@ -2773,22 +2783,22 @@
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G31" s="15"/>
@@ -2803,22 +2813,22 @@
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="15"/>
@@ -2833,22 +2843,22 @@
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="15"/>
@@ -2863,22 +2873,22 @@
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="15"/>
@@ -2893,22 +2903,22 @@
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G35" s="15"/>
@@ -2923,22 +2933,22 @@
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G36" s="15"/>
@@ -2952,23 +2962,23 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="1:16" s="75" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
+    <row r="37" spans="1:16" s="51" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="15"/>
@@ -2983,22 +2993,22 @@
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G38" s="15"/>
@@ -3013,22 +3023,22 @@
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G39" s="15"/>
@@ -3043,22 +3053,22 @@
       <c r="P39" s="15"/>
     </row>
     <row r="40" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G40" s="15"/>
@@ -3073,44 +3083,44 @@
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="43" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G42" s="15"/>
@@ -3125,22 +3135,22 @@
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G43" s="15"/>
@@ -3155,22 +3165,22 @@
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G44" s="15"/>
@@ -3185,44 +3195,44 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
     </row>
     <row r="46" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="43" t="s">
         <v>184</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="67" t="s">
+      <c r="F46" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G46" s="15"/>
@@ -3237,22 +3247,22 @@
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G47" s="15"/>
@@ -3267,22 +3277,22 @@
       <c r="P47" s="15"/>
     </row>
     <row r="48" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="43" t="s">
         <v>184</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G48" s="15"/>
@@ -3297,22 +3307,22 @@
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="66" t="s">
+      <c r="E49" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="15"/>
@@ -3327,23 +3337,23 @@
       <c r="P49" s="15"/>
     </row>
     <row r="50" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="73" t="s">
-        <v>2</v>
+      <c r="F50" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3357,44 +3367,44 @@
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
     </row>
     <row r="52" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="15"/>
@@ -3408,23 +3418,23 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
     </row>
-    <row r="53" spans="1:16" s="75" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A53" s="66" t="s">
+    <row r="53" spans="1:16" s="51" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="66" t="s">
+      <c r="D53" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="67" t="s">
+      <c r="F53" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G53" s="15"/>
@@ -3438,23 +3448,23 @@
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
     </row>
-    <row r="54" spans="1:16" s="75" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+    <row r="54" spans="1:16" s="51" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="67" t="s">
+      <c r="F54" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G54" s="15"/>
@@ -3469,22 +3479,22 @@
       <c r="P54" s="15"/>
     </row>
     <row r="55" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="67" t="s">
+      <c r="F55" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G55" s="15"/>
@@ -3499,22 +3509,22 @@
       <c r="P55" s="15"/>
     </row>
     <row r="56" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="67" t="s">
+      <c r="F56" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G56" s="15"/>
@@ -3529,22 +3539,22 @@
       <c r="P56" s="15"/>
     </row>
     <row r="57" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="F57" s="67" t="s">
+      <c r="F57" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G57" s="15"/>
@@ -3559,22 +3569,22 @@
       <c r="P57" s="15"/>
     </row>
     <row r="58" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="67" t="s">
+      <c r="F58" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G58" s="15"/>
@@ -3589,22 +3599,22 @@
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="E59" s="66" t="s">
+      <c r="E59" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="67" t="s">
+      <c r="F59" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G59" s="15"/>
@@ -3619,22 +3629,22 @@
       <c r="P59" s="15"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="59"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3648,7 +3658,11 @@
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F50" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>